--- a/src/analysis_examples/circadb/results_jtk/cosinor_10383717_inpp5j_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10383717_inpp5j_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24897958323259728, 0.3856443961714906]</t>
+          <t>[0.25030389032111205, 0.3843200890829758]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.557166117218458e-09</v>
+        <v>2.532333898130901e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.557166117218458e-09</v>
+        <v>2.532333898130901e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157708</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5190835425524061, 0.589709511902522]</t>
+          <t>[0.5190954775366665, 0.5896975769182615]</t>
         </is>
       </c>
       <c r="U2" t="n">
